--- a/ig/feature/sos-medecins/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/ig/feature/sos-medecins/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T15:58:12+00:00</t>
+    <t>2023-11-07T16:22:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/feature/sos-medecins/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/ig/feature/sos-medecins/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T16:22:34+00:00</t>
+    <t>2023-11-08T09:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/feature/sos-medecins/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/ig/feature/sos-medecins/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T09:39:39+00:00</t>
+    <t>2023-11-08T15:44:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
